--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>805943.4530529031</v>
+        <v>886146.1762049368</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240763</v>
+        <v>5739665.974240767</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>179.6140181837488</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>4.199909098492558</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838592</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
         <v>192.0665623188214</v>
@@ -832,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>71.36151060514015</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>295.7082287689763</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>53.96736632880985</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>86.86980445980525</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>305.0126164572716</v>
+        <v>299.570543554002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -1309,7 +1311,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>54.02174210137514</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>144.8586974472227</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>267.3434267027885</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>320.9133891870997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>162.0722607150747</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1576,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>229.7965692041375</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>139.8060972184438</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.7576914549238</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>111.9187566128687</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>25.87859906451784</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>296.4160166760812</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>133.2201274938928</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>28.1928345133091</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,10 +2086,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>100.5751131451067</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>64.37012338319005</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.2698918955232</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2324,16 +2326,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>235.9375844494537</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2488,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>112.0808863526777</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>304.9199054952856</v>
+        <v>168.1158122680976</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2716,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>122.9729270462478</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>146.7363908935769</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>210.0946544764323</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>188.2196394312107</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>40.79100033485432</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>176.7697821123584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>229.796569204137</v>
+        <v>137.0709134223719</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3190,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>52.23490948285976</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>36.18491463503199</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>308.920356475714</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486474</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.41948680756593</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>120.6088074159611</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>328.0423659626499</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>77.31354443380542</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>26.30878201733263</v>
       </c>
       <c r="X41" t="n">
-        <v>170.6047553962387</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.83188548727787</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>42.67804628306396</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>284.4297735342307</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>101.3208278811443</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>59.9032091929889</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1211.005488048709</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C2" t="n">
-        <v>1211.005488048709</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="D2" t="n">
-        <v>852.7397894419585</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E2" t="n">
-        <v>466.9515368437143</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
         <v>466.9515368437143</v>
@@ -4328,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.07108637391</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1971.07108637391</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.605328112831</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y2" t="n">
-        <v>1597.605328112831</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4412,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>938.9442613508772</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229704</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106346</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282415</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1564.363786129911</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1564.363786129911</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1341.385305324647</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1341.385305324647</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1341.385305324647</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1341.385305324647</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>1341.385305324647</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>1120.592726181117</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>474.7217947496369</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="C5" t="n">
-        <v>105.7592778092252</v>
+        <v>1136.079510584979</v>
       </c>
       <c r="D5" t="n">
-        <v>105.7592778092252</v>
+        <v>1136.079510584979</v>
       </c>
       <c r="E5" t="n">
-        <v>105.7592778092252</v>
+        <v>1136.079510584979</v>
       </c>
       <c r="F5" t="n">
-        <v>105.7592778092252</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>105.7592778092252</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>105.7592778092252</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4568,10 +4570,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4598,19 +4600,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.46096678957</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.3216348137587</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4637,7 @@
         <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
@@ -4644,25 +4646,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>870.329241545892</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.770244284151</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.5881086072301</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>393.5881086072301</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>393.5881086072301</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>393.5881086072301</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5881086072301</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
         <v>305.8408313751036</v>
@@ -4723,25 +4725,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4756,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354872</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>575.2365734374698</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y7" t="n">
-        <v>575.2365734374698</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854568</v>
+        <v>1081.071510755571</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450451</v>
+        <v>712.1089938151597</v>
       </c>
       <c r="D8" t="n">
-        <v>359.3403385450451</v>
+        <v>353.8432952084092</v>
       </c>
       <c r="E8" t="n">
-        <v>359.3403385450451</v>
+        <v>353.8432952084092</v>
       </c>
       <c r="F8" t="n">
-        <v>359.3403385450451</v>
+        <v>353.8432952084092</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4838,16 +4840,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1467.671350819693</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4877,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>570.4526592426267</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>570.4526592426267</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>570.4526592426267</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>422.5395656602336</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>422.5395656602336</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>254.5531009685122</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>105.8142028320184</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485136</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426267</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>570.4526592426267</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>570.4526592426267</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y10" t="n">
-        <v>570.4526592426267</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1491.569348694473</v>
+        <v>1914.669427940025</v>
       </c>
       <c r="C11" t="n">
-        <v>1122.606831754061</v>
+        <v>1545.706910999614</v>
       </c>
       <c r="D11" t="n">
-        <v>764.341133147311</v>
+        <v>1187.441212392863</v>
       </c>
       <c r="E11" t="n">
-        <v>378.5528805490667</v>
+        <v>801.6529597946189</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>390.6670550050114</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.542934265601</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995486</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.308520734407</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y11" t="n">
-        <v>1878.169188758595</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="12">
@@ -5109,16 +5111,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>789.3802648613057</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F13" t="n">
         <v>477.7578170212613</v>
@@ -5194,7 +5196,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5224,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>971.0287296915454</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1590.514489367197</v>
+        <v>1133.32083113111</v>
       </c>
       <c r="C14" t="n">
-        <v>1221.551972426786</v>
+        <v>764.3583141906979</v>
       </c>
       <c r="D14" t="n">
-        <v>863.2862738200351</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E14" t="n">
-        <v>477.498021221791</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
@@ -5285,7 +5287,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3093.488074938325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2740.71941966821</v>
+        <v>2283.525761432123</v>
       </c>
       <c r="X14" t="n">
-        <v>2367.25366140713</v>
+        <v>1910.060003171043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1977.114329431319</v>
+        <v>1519.920671195231</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5476,10 +5478,10 @@
         <v>590.8070661251691</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1590.514489367197</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="C17" t="n">
-        <v>1221.551972426786</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D17" t="n">
-        <v>863.2862738200351</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E17" t="n">
-        <v>477.498021221791</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218342</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3299.465822554102</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3093.488074938325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>3093.488074938325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V17" t="n">
-        <v>3093.488074938325</v>
+        <v>3026.195703754542</v>
       </c>
       <c r="W17" t="n">
-        <v>2740.71941966821</v>
+        <v>2673.427048484428</v>
       </c>
       <c r="X17" t="n">
-        <v>2367.25366140713</v>
+        <v>2299.961290223348</v>
       </c>
       <c r="Y17" t="n">
-        <v>1977.114329431319</v>
+        <v>1909.821958247536</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>664.8171257877602</v>
+        <v>686.126594326469</v>
       </c>
       <c r="C19" t="n">
-        <v>495.8809428598533</v>
+        <v>686.126594326469</v>
       </c>
       <c r="D19" t="n">
-        <v>495.8809428598533</v>
+        <v>536.0099549141332</v>
       </c>
       <c r="E19" t="n">
-        <v>347.9678492774602</v>
+        <v>388.0968613317401</v>
       </c>
       <c r="F19" t="n">
-        <v>201.0779017795499</v>
+        <v>241.2069138338298</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>241.2069138338298</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>94.98972705168754</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
         <v>315.6219318279954</v>
@@ -5701,22 +5703,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W19" t="n">
-        <v>1067.25816976153</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.25816976153</v>
+        <v>906.9191734699991</v>
       </c>
       <c r="Y19" t="n">
-        <v>846.465590618</v>
+        <v>686.126594326469</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1647.321240915451</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="C20" t="n">
-        <v>1278.358723975039</v>
+        <v>994.1614947556902</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
         <v>892.5704713767946</v>
@@ -5741,28 +5743,28 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5774,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3150.294826486578</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>3150.294826486578</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>3150.294826486578</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W20" t="n">
-        <v>2797.526171216464</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X20" t="n">
-        <v>2424.060412955384</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y20" t="n">
-        <v>2033.921080979572</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1758.953670317396</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="C22" t="n">
-        <v>1758.953670317396</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D22" t="n">
-        <v>1758.953670317396</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E22" t="n">
-        <v>1611.040576735003</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F22" t="n">
-        <v>1611.040576735003</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G22" t="n">
-        <v>1611.040576735003</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K22" t="n">
         <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.60582160917</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T22" t="n">
-        <v>3103.839206178696</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U22" t="n">
-        <v>2814.73633930434</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V22" t="n">
-        <v>2560.051851098453</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W22" t="n">
-        <v>2270.634681061492</v>
+        <v>1989.118339645847</v>
       </c>
       <c r="X22" t="n">
-        <v>2042.645130163475</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y22" t="n">
-        <v>1821.852551019945</v>
+        <v>1540.3362096043</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>663.0986074121195</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>304.832908805369</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>304.832908805369</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>304.832908805369</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>304.832908805369</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W23" t="n">
-        <v>3155.791869823214</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
         <v>2407.411984886741</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>793.5809963705858</v>
+        <v>2151.073568494536</v>
       </c>
       <c r="C25" t="n">
-        <v>624.6448134426789</v>
+        <v>1982.137385566629</v>
       </c>
       <c r="D25" t="n">
-        <v>474.5281740303432</v>
+        <v>1832.020746154294</v>
       </c>
       <c r="E25" t="n">
-        <v>326.61508044795</v>
+        <v>1684.1076525719</v>
       </c>
       <c r="F25" t="n">
-        <v>179.7251329500397</v>
+        <v>1537.21770507399</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U25" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V25" t="n">
-        <v>1424.011591242373</v>
+        <v>3070.921333403284</v>
       </c>
       <c r="W25" t="n">
-        <v>1424.011591242373</v>
+        <v>2781.504163366324</v>
       </c>
       <c r="X25" t="n">
-        <v>1196.022040344356</v>
+        <v>2553.514612468306</v>
       </c>
       <c r="Y25" t="n">
-        <v>975.2294612008255</v>
+        <v>2332.722033324776</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1888.09808975843</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>1519.135572818019</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>1160.869874211268</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>775.0816216130238</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6260,16 +6262,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>3017.605917068478</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W26" t="n">
-        <v>2664.837261798364</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X26" t="n">
-        <v>2664.837261798364</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y26" t="n">
-        <v>2274.697929822552</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M27" t="n">
         <v>1212.42807043813</v>
@@ -6318,37 +6320,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>752.7622949738579</v>
+        <v>753.0765981364625</v>
       </c>
       <c r="C28" t="n">
-        <v>752.7622949738579</v>
+        <v>753.0765981364625</v>
       </c>
       <c r="D28" t="n">
-        <v>602.6456555615222</v>
+        <v>753.0765981364625</v>
       </c>
       <c r="E28" t="n">
-        <v>478.4305777370295</v>
+        <v>605.1635045540694</v>
       </c>
       <c r="F28" t="n">
-        <v>331.5406302391191</v>
+        <v>458.273557056159</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N28" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O28" t="n">
         <v>1617.076751502319</v>
@@ -6415,19 +6417,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V28" t="n">
-        <v>1672.610059882606</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W28" t="n">
-        <v>1383.192889845645</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="X28" t="n">
-        <v>1155.203338947628</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y28" t="n">
-        <v>934.4107598040977</v>
+        <v>934.7250629667022</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1632.511388127729</v>
+        <v>2217.803762225668</v>
       </c>
       <c r="C29" t="n">
-        <v>1263.548871187317</v>
+        <v>1848.841245285256</v>
       </c>
       <c r="D29" t="n">
-        <v>905.2831725805665</v>
+        <v>1490.575546678506</v>
       </c>
       <c r="E29" t="n">
-        <v>519.4949199823222</v>
+        <v>1104.787294080262</v>
       </c>
       <c r="F29" t="n">
-        <v>108.5090151927147</v>
+        <v>693.801389290654</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>278.7289391356505</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V29" t="n">
-        <v>3135.484973698856</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W29" t="n">
-        <v>2782.716318428742</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="X29" t="n">
-        <v>2409.250560167662</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="Y29" t="n">
-        <v>2019.11122819185</v>
+        <v>2604.40360228979</v>
       </c>
     </row>
     <row r="30">
@@ -6531,31 +6533,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
         <v>2407.411984886741</v>
@@ -6595,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H31" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L31" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N31" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O31" t="n">
         <v>1617.076751502319</v>
@@ -6649,22 +6651,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V31" t="n">
-        <v>1672.610059882606</v>
+        <v>1161.740577577776</v>
       </c>
       <c r="W31" t="n">
-        <v>1672.610059882606</v>
+        <v>872.3234075408152</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.054724415577</v>
+        <v>644.3338566427979</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>423.5412774992677</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1590.514489367197</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C32" t="n">
-        <v>1221.551972426786</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D32" t="n">
-        <v>863.2862738200351</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>66.5121164321834</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V32" t="n">
-        <v>3093.488074938325</v>
+        <v>2823.329208306698</v>
       </c>
       <c r="W32" t="n">
-        <v>2740.71941966821</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X32" t="n">
-        <v>2367.25366140713</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y32" t="n">
-        <v>1977.114329431319</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="33">
@@ -6768,31 +6770,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
         <v>2407.411984886741</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>362.8175152271517</v>
+        <v>2043.619166450421</v>
       </c>
       <c r="C34" t="n">
-        <v>362.8175152271517</v>
+        <v>2043.619166450421</v>
       </c>
       <c r="D34" t="n">
-        <v>362.8175152271517</v>
+        <v>1893.502527038086</v>
       </c>
       <c r="E34" t="n">
-        <v>362.8175152271517</v>
+        <v>1745.589433455692</v>
       </c>
       <c r="F34" t="n">
-        <v>362.8175152271517</v>
+        <v>1598.699485957782</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959802</v>
+        <v>1598.699485957782</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>1562.149067134518</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348675</v>
       </c>
       <c r="L34" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797171</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.65004939672</v>
       </c>
       <c r="N34" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102585</v>
       </c>
       <c r="O34" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022998</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456658</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>3036.502954734816</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>2781.818466528929</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>2492.401296491968</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>2264.411745593951</v>
       </c>
       <c r="Y34" t="n">
-        <v>362.8175152271517</v>
+        <v>2043.619166450421</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.569348694473</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.606831754061</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>764.3411331473105</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>378.5528805490663</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>378.5528805490663</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
         <v>66.51211643218342</v>
@@ -6935,16 +6937,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6971,16 +6973,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.5429342656</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995486</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.308520734406</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.169188758594</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1759.626431033165</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="C37" t="n">
-        <v>1759.626431033165</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="D37" t="n">
-        <v>1759.626431033165</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E37" t="n">
-        <v>1611.713337450772</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J37" t="n">
         <v>1509.946022399797</v>
@@ -7099,16 +7101,16 @@
         <v>1713.933205348673</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N37" t="n">
         <v>2716.058426102583</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P37" t="n">
         <v>3247.995525456656</v>
@@ -7126,19 +7128,19 @@
         <v>2912.153322005523</v>
       </c>
       <c r="U37" t="n">
-        <v>2623.050455131167</v>
+        <v>2639.355643067495</v>
       </c>
       <c r="V37" t="n">
-        <v>2368.36596692528</v>
+        <v>2384.671154861609</v>
       </c>
       <c r="W37" t="n">
-        <v>2078.94879688832</v>
+        <v>2095.253984824648</v>
       </c>
       <c r="X37" t="n">
-        <v>1850.959245990302</v>
+        <v>1867.264433926631</v>
       </c>
       <c r="Y37" t="n">
-        <v>1759.626431033165</v>
+        <v>1646.471854783101</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1590.514489367197</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C38" t="n">
-        <v>1221.551972426786</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200353</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218345</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7181,7 +7183,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7196,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883009</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>3072.075344883009</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W38" t="n">
-        <v>2740.719419668211</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X38" t="n">
-        <v>2367.253661407131</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y38" t="n">
-        <v>1977.114329431319</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>1378.708694614562</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>936.5735814686093</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>846.0716871064768</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
-        <v>827.0643955080147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>920.7416649986321</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>1525.704024291645</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>1861.97070162018</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>1693.034518692273</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>1542.917879279937</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>1542.917879279937</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>1542.917879279937</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218345</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U40" t="n">
-        <v>1927.294548088493</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V40" t="n">
-        <v>1927.294548088493</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.044275313594</v>
+        <v>2492.401296491967</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>2264.411745593949</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>2043.619166450419</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1619.798686923957</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C41" t="n">
-        <v>1250.836169983545</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D41" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7424,10 +7426,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052369</v>
@@ -7445,16 +7447,16 @@
         <v>2866.09759726723</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.034709923659</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W41" t="n">
-        <v>2182.266054653545</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X41" t="n">
-        <v>2009.938018899768</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y41" t="n">
-        <v>1619.798686923957</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>848.0708164780106</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C43" t="n">
-        <v>679.1346335501037</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>255.8384408739862</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>109.621254091844</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
@@ -7591,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>880.2242361621296</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X43" t="n">
-        <v>880.2242361621296</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y43" t="n">
-        <v>880.2242361621296</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1888.09808975843</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C44" t="n">
-        <v>1519.135572818019</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D44" t="n">
-        <v>1160.869874211268</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E44" t="n">
-        <v>775.0816216130238</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F44" t="n">
-        <v>364.0957168234162</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>3038.303020059443</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X44" t="n">
-        <v>2664.837261798364</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y44" t="n">
-        <v>2274.697929822552</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>463.6594280995014</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C46" t="n">
-        <v>463.6594280995014</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D46" t="n">
-        <v>463.6594280995014</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E46" t="n">
-        <v>315.7463345171083</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F46" t="n">
-        <v>168.8563870191979</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>168.8563870191979</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7831,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1866.786255974363</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>1866.786255974363</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214136</v>
+        <v>1577.683389100006</v>
       </c>
       <c r="V46" t="n">
-        <v>1383.507193008249</v>
+        <v>1322.998900894119</v>
       </c>
       <c r="W46" t="n">
-        <v>1094.090022971289</v>
+        <v>1033.581730857159</v>
       </c>
       <c r="X46" t="n">
-        <v>866.1004720732712</v>
+        <v>805.5921799591412</v>
       </c>
       <c r="Y46" t="n">
-        <v>645.3078929297411</v>
+        <v>584.799600815611</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>138.9393975111055</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>280.1079373569284</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22550,13 +22552,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>175.0690234369341</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22567,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>323.5523493716423</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22720,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>30.19606181443346</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -22768,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>80.85095794181399</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22793,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>111.1678169727352</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>11.74254634366065</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,7 +22840,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22942,19 +22944,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>79.43679558499893</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22996,19 +22998,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>80.85095794181399</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23024,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23033,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>106.5350863156824</v>
+        <v>111.977159218952</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -23081,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23176,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23197,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>50.77485310252544</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>80.85095794181444</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>139.5326190389229</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>90.0083364663538</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -23318,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5.174560383553086</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,22 +23466,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>97.95568926599745</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>209.4348714989692</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>33.50229141006257</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.30916272365799</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>31.33624179405371</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>32.80568076513546</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>68.15958589652898</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23972,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>254.1079284755762</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>139.5478467564301</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>117.5620882864141</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24144,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>58.67017993786678</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,16 +24259,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>53.9449219063505</v>
+        <v>94.35543628911095</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24500,13 +24502,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>22.8323529748493</v>
+        <v>159.6364462020373</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>23.4610356003214</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>19.2894173654513</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24655,13 +24657,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>84.51310991088812</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,13 +24739,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>139.5326190389242</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>139.040979847083</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>48.93987327667872</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24917,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>97.9556892659979</v>
+        <v>190.681345047763</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>113.7908987761685</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>108.5701002792888</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25163,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>102.0013691777394</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25211,10 +25213,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>16.14213605696546</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>128.1651665445289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>290.3129182374923</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>21.1986027547631</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>88.71226382522281</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>322.9321867000804</v>
       </c>
       <c r="X41" t="n">
-        <v>199.1263452822303</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.0000946946594</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>53.67437412677413</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>64.81119518318235</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>43.43418703317646</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26071,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>129.865816138453</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>761671.8618622503</v>
+        <v>761671.8618622504</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>761671.8618622503</v>
+        <v>761671.8618622504</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>761671.8618622501</v>
+        <v>761671.8618622504</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841542.3321288794</v>
+        <v>841542.3321288791</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841542.332128879</v>
+        <v>841542.3321288793</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>841542.3321288794</v>
+        <v>841542.3321288793</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841542.3321288793</v>
+        <v>841542.3321288795</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841542.3321288793</v>
+        <v>841542.3321288795</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841542.3321288793</v>
+        <v>841542.3321288794</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>841542.3321288794</v>
+        <v>841542.3321288793</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841542.3321288793</v>
+        <v>841542.3321288794</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>841542.3321288793</v>
+        <v>841542.3321288791</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321270.2120190241</v>
+        <v>321270.2120190238</v>
       </c>
       <c r="C2" t="n">
+        <v>321270.2120190238</v>
+      </c>
+      <c r="D2" t="n">
         <v>321270.2120190239</v>
       </c>
-      <c r="D2" t="n">
-        <v>321270.2120190238</v>
-      </c>
       <c r="E2" t="n">
-        <v>358046.9539194668</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="F2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194664</v>
       </c>
       <c r="G2" t="n">
-        <v>358046.9539194668</v>
+        <v>358046.9539194664</v>
       </c>
       <c r="H2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194664</v>
       </c>
       <c r="I2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="J2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="K2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="L2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="M2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="O2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="P2" t="n">
         <v>358046.9539194666</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>182072.9798171907</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.265793415</v>
+        <v>47552.26579341458</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="C4" t="n">
         <v>12563.18241499341</v>
@@ -26424,40 +26426,40 @@
         <v>12563.18241499341</v>
       </c>
       <c r="E4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="F4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="G4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="H4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="I4" t="n">
-        <v>6720.683277029919</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="J4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="K4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="L4" t="n">
-        <v>6720.683277029921</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="M4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="N4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="O4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="P4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26482,34 +26484,34 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="H5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-898982.5264117339</v>
+        <v>-898982.5264117341</v>
       </c>
       <c r="C6" t="n">
-        <v>215769.257164186</v>
+        <v>215769.2571641857</v>
       </c>
       <c r="D6" t="n">
-        <v>215769.2571641857</v>
+        <v>215769.2571641858</v>
       </c>
       <c r="E6" t="n">
-        <v>94946.95026385272</v>
+        <v>94946.95026385275</v>
       </c>
       <c r="F6" t="n">
-        <v>277019.9300810434</v>
+        <v>277019.9300810431</v>
       </c>
       <c r="G6" t="n">
-        <v>277019.9300810435</v>
+        <v>277019.9300810432</v>
       </c>
       <c r="H6" t="n">
-        <v>277019.9300810434</v>
+        <v>277019.9300810432</v>
       </c>
       <c r="I6" t="n">
-        <v>277019.9300810435</v>
+        <v>277019.9300810432</v>
       </c>
       <c r="J6" t="n">
-        <v>109414.7522710607</v>
+        <v>109414.7522710608</v>
       </c>
       <c r="K6" t="n">
         <v>277019.9300810434</v>
       </c>
       <c r="L6" t="n">
-        <v>277019.9300810435</v>
+        <v>277019.9300810433</v>
       </c>
       <c r="M6" t="n">
-        <v>229467.6642876285</v>
+        <v>229467.6642876288</v>
       </c>
       <c r="N6" t="n">
         <v>277019.9300810434</v>
       </c>
       <c r="O6" t="n">
-        <v>277019.9300810435</v>
+        <v>277019.9300810433</v>
       </c>
       <c r="P6" t="n">
-        <v>277019.9300810433</v>
+        <v>277019.9300810434</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26756,16 +26758,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26793,43 +26795,43 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="H4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33916,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563583</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -33983,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34375,7 +34377,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490575</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
         <v>781.7148990095023</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>474.3640795072286</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>577.7882979947785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35273,7 +35275,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129106</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O34" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -38023,7 +38025,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
